--- a/src/test/resources/bulk/bad_first_column.xlsx
+++ b/src/test/resources/bulk/bad_first_column.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="100" windowWidth="22040" windowHeight="12340"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>title</t>
   </si>
@@ -35,9 +35,6 @@
     <t>isbn</t>
   </si>
   <si>
-    <t>numberOfPages</t>
-  </si>
-  <si>
     <t>History of art</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>1234-5312</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>documentType</t>
@@ -433,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,55 +449,46 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>1234</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
